--- a/eShopping-user-stories.xlsx
+++ b/eShopping-user-stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/jose_ben_gds_ey_com/Documents/Documents/GitHub/ey-eshopping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{406063B1-5079-4254-A29F-075805DA4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{406063B1-5079-4254-A29F-075805DA4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08B1B39-E203-4FB9-9CA7-69CBF64C4686}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>User Story ID</t>
   </si>
@@ -47,12 +47,6 @@
     <t>As a/an ..</t>
   </si>
   <si>
-    <t>I want to be able to ..</t>
-  </si>
-  <si>
-    <t>So that ..</t>
-  </si>
-  <si>
     <t>see the list of all products with title, price, in stock, date of expiry, category (Smart Phone, Electronics, Snacks), free delivery</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>ESUC015</t>
   </si>
   <si>
-    <t>I want to see a list of items that I have added to the cart</t>
-  </si>
-  <si>
     <t>so that I can proceed to pay</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
     <t>so that I can order the products</t>
   </si>
   <si>
-    <t>Jose Ben</t>
-  </si>
-  <si>
     <t>so that I can increase or decrease the number of books required</t>
   </si>
   <si>
@@ -186,13 +174,70 @@
   </si>
   <si>
     <t>so that I can reconfirm the selected product</t>
+  </si>
+  <si>
+    <t>Feature Complexity</t>
+  </si>
+  <si>
+    <t>Business Priority</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Short Description of Feature Set/ Feature</t>
+  </si>
+  <si>
+    <t>Dependency of Feature Set/ Feature</t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Feature Owner</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to see a list of items that I have added to the cart : </t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Create and connect the mysql tables</t>
+  </si>
+  <si>
+    <t>Performing CURD functionalits on the tables</t>
+  </si>
+  <si>
+    <t>ESUC016</t>
+  </si>
+  <si>
+    <t>jUnit Testing</t>
+  </si>
+  <si>
+    <t>Required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +265,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +295,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,12 +310,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -255,8 +338,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -281,6 +387,26 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -299,6 +425,26 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -317,6 +463,26 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -413,13 +579,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:E18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="5">
+  <autoFilter ref="B1:E18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Story ID" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Story ID" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="As a/an .." dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="I want to be able to .." dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="So that .." dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Short Description of Feature Set/ Feature" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dependency of Feature Set/ Feature" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -688,256 +854,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="60.54296875" customWidth="1"/>
-    <col min="4" max="4" width="50.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="60.54296875" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E12:E16"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -948,20 +1434,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="951c5514-b77c-4532-82d5-a05f2f7d58e2">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3dab60aa55af7873d4fb0fb0a2c8c369">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="984ff00f1b2cb8248b6feb67eea399b9" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -1132,6 +1604,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="951c5514-b77c-4532-82d5-a05f2f7d58e2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1142,16 +1628,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{620DE3A1-D1B6-4E10-AC53-B8E4EB0783E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A859F246-920B-4558-9B11-B3C7D5FB3865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1170,6 +1646,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{620DE3A1-D1B6-4E10-AC53-B8E4EB0783E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
   <ds:schemaRefs>

--- a/eShopping-user-stories.xlsx
+++ b/eShopping-user-stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/jose_ben_gds_ey_com/Documents/Documents/GitHub/ey-eshopping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/rajasree_m1_gds_ey_com/Documents/Documents/GitHub/ey-eshopping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{406063B1-5079-4254-A29F-075805DA4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08B1B39-E203-4FB9-9CA7-69CBF64C4686}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{406063B1-5079-4254-A29F-075805DA4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431109FC-951D-4024-B898-1D6624401657}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>User Story ID</t>
   </si>
@@ -47,18 +47,6 @@
     <t>As a/an ..</t>
   </si>
   <si>
-    <t>see the list of all products with title, price, in stock, date of expiry, category (Smart Phone, Electronics, Snacks), free delivery</t>
-  </si>
-  <si>
-    <t>I can find a product to edit</t>
-  </si>
-  <si>
-    <t>edit details of a product</t>
-  </si>
-  <si>
-    <t>mistakes in the product details can be corrected</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -231,6 +219,30 @@
   </si>
   <si>
     <t>Required</t>
+  </si>
+  <si>
+    <t>As a user, I want to login to the application using my credentials</t>
+  </si>
+  <si>
+    <t>so that I can login to the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajasree </t>
+  </si>
+  <si>
+    <t>create user details table</t>
+  </si>
+  <si>
+    <t>Only aunthenticated users are allowed to enter</t>
+  </si>
+  <si>
+    <t>user credentials must be authenticated</t>
+  </si>
+  <si>
+    <t>user credential validation</t>
+  </si>
+  <si>
+    <t>Rajasree</t>
   </si>
 </sst>
 </file>
@@ -280,6 +292,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -364,6 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -579,10 +593,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:E18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="5">
-  <autoFilter ref="B1:E18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:E20" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B1:E20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Story ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Story ID" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="As a/an .." dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Short Description of Feature Set/ Feature" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dependency of Feature Set/ Feature" dataDxfId="0"/>
@@ -854,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,7 +886,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -881,481 +895,491 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="D6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="H16" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
+      <c r="F21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F22" s="7"/>
@@ -1412,16 +1436,28 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1605,6 +1641,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="951c5514-b77c-4532-82d5-a05f2f7d58e2">
@@ -1616,15 +1661,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1647,6 +1683,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{620DE3A1-D1B6-4E10-AC53-B8E4EB0783E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1654,12 +1698,4 @@
     <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/eShopping-user-stories.xlsx
+++ b/eShopping-user-stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/rajasree_m1_gds_ey_com/Documents/Documents/GitHub/ey-eshopping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/maria_shaju_gds_ey_com/Documents/Documents/GitHub/ey-eshopping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{406063B1-5079-4254-A29F-075805DA4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431109FC-951D-4024-B898-1D6624401657}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{406063B1-5079-4254-A29F-075805DA4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDBE3AAD-030F-4981-B1ED-EE91B100097D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,18 +62,6 @@
     <t>irrelevant products are not displayed to the customer</t>
   </si>
   <si>
-    <t>add a product into cart</t>
-  </si>
-  <si>
-    <t>I can accumulate the products I want to buy</t>
-  </si>
-  <si>
-    <t>view the list of products in my cart</t>
-  </si>
-  <si>
-    <t>I can know the items already in the cart</t>
-  </si>
-  <si>
     <t>remove an item from my cart</t>
   </si>
   <si>
@@ -243,6 +231,18 @@
   </si>
   <si>
     <t>Rajasree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to see the total number of books </t>
+  </si>
+  <si>
+    <t>so that I can see number of books orginally existed</t>
+  </si>
+  <si>
+    <t>As a user , I want to see quantity of books left</t>
+  </si>
+  <si>
+    <t>So I can know if the book is sold out or not</t>
   </si>
 </sst>
 </file>
@@ -296,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +312,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -343,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -378,6 +384,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -872,7 +888,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,7 +902,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -895,22 +911,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -918,25 +934,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -944,7 +960,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -955,25 +971,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -981,7 +997,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -992,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -1004,13 +1020,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1018,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
@@ -1030,65 +1046,65 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>45</v>
+      <c r="D9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1096,25 +1112,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1122,25 +1138,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1148,25 +1164,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26" x14ac:dyDescent="0.35">
@@ -1174,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>2</v>
@@ -1186,13 +1202,13 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1200,25 +1216,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1226,13 +1242,13 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -1241,25 +1257,25 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="H16" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1267,25 +1283,25 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1293,16 +1309,16 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1310,25 +1326,25 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1336,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1362,23 +1378,23 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1470,6 +1486,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3dab60aa55af7873d4fb0fb0a2c8c369">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="984ff00f1b2cb8248b6feb67eea399b9" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -1640,15 +1665,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1664,6 +1680,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A859F246-920B-4558-9B11-B3C7D5FB3865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1682,14 +1706,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{620DE3A1-D1B6-4E10-AC53-B8E4EB0783E9}">
   <ds:schemaRefs>

--- a/eShopping-user-stories.xlsx
+++ b/eShopping-user-stories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/maria_shaju_gds_ey_com/Documents/Documents/GitHub/ey-eshopping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DX595QX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{406063B1-5079-4254-A29F-075805DA4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDBE3AAD-030F-4981-B1ED-EE91B100097D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E5F5E7-F9EA-4169-ABA5-92B430BB6531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>User Story ID</t>
   </si>
@@ -56,12 +56,6 @@
     <t>I can find a product to buy</t>
   </si>
   <si>
-    <t>view products that are in stock and product expiry date is not past</t>
-  </si>
-  <si>
-    <t>irrelevant products are not displayed to the customer</t>
-  </si>
-  <si>
     <t>remove an item from my cart</t>
   </si>
   <si>
@@ -243,6 +237,27 @@
   </si>
   <si>
     <t>So I can know if the book is sold out or not</t>
+  </si>
+  <si>
+    <t>Mohd.Areeb</t>
+  </si>
+  <si>
+    <t>Describing the summary of the products</t>
+  </si>
+  <si>
+    <t>I can see the elaborate description of the products</t>
+  </si>
+  <si>
+    <t>Pushkar sinha</t>
+  </si>
+  <si>
+    <t>Register user with the credentials</t>
+  </si>
+  <si>
+    <t>Access the full functionality of the webapp</t>
+  </si>
+  <si>
+    <t>Aryaman garg</t>
   </si>
 </sst>
 </file>
@@ -886,9 +901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -902,7 +917,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -911,22 +926,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -934,25 +949,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -960,7 +975,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -971,25 +986,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -997,7 +1012,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -1008,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2</v>
@@ -1020,13 +1035,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1034,25 +1049,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -1060,25 +1075,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -1086,25 +1101,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1112,25 +1127,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1138,25 +1153,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1164,51 +1179,51 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1216,25 +1231,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1242,13 +1257,13 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -1257,25 +1272,25 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -1283,25 +1298,25 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1309,16 +1324,16 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1326,25 +1341,25 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1352,25 +1367,25 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1378,23 +1393,23 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1486,15 +1501,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3dab60aa55af7873d4fb0fb0a2c8c369">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="984ff00f1b2cb8248b6feb67eea399b9" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -1665,6 +1671,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1680,14 +1695,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A859F246-920B-4558-9B11-B3C7D5FB3865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1706,6 +1713,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{620DE3A1-D1B6-4E10-AC53-B8E4EB0783E9}">
   <ds:schemaRefs>

--- a/eShopping-user-stories.xlsx
+++ b/eShopping-user-stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DX595QX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E5F5E7-F9EA-4169-ABA5-92B430BB6531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC712E-6FB6-4D98-AB73-A6FB0FE30413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,9 +242,6 @@
     <t>Mohd.Areeb</t>
   </si>
   <si>
-    <t>Describing the summary of the products</t>
-  </si>
-  <si>
     <t>I can see the elaborate description of the products</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Aryaman garg</t>
+  </si>
+  <si>
+    <t>see the summary of products</t>
   </si>
 </sst>
 </file>
@@ -903,7 +903,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1055,13 +1055,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>38</v>
@@ -1211,13 +1211,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>38</v>
@@ -1501,6 +1501,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3dab60aa55af7873d4fb0fb0a2c8c369">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="984ff00f1b2cb8248b6feb67eea399b9" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -1671,15 +1680,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1695,6 +1695,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A859F246-920B-4558-9B11-B3C7D5FB3865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1713,14 +1721,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{620DE3A1-D1B6-4E10-AC53-B8E4EB0783E9}">
   <ds:schemaRefs>

--- a/eShopping-user-stories.xlsx
+++ b/eShopping-user-stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DX595QX\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/jose_ben_gds_ey_com/Documents/Documents/GitHub/ey-eshopping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC712E-6FB6-4D98-AB73-A6FB0FE30413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{84DC712E-6FB6-4D98-AB73-A6FB0FE30413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCAC7050-207A-4F07-9438-0A34A7749D23}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
   <si>
     <t>User Story ID</t>
   </si>
@@ -161,9 +161,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Short Description of Feature Set/ Feature</t>
   </si>
   <si>
@@ -186,21 +183,6 @@
   </si>
   <si>
     <t>Maria</t>
-  </si>
-  <si>
-    <t>Create and connect the mysql tables</t>
-  </si>
-  <si>
-    <t>Performing CURD functionalits on the tables</t>
-  </si>
-  <si>
-    <t>ESUC016</t>
-  </si>
-  <si>
-    <t>jUnit Testing</t>
-  </si>
-  <si>
-    <t>Required</t>
   </si>
   <si>
     <t>As a user, I want to login to the application using my credentials</t>
@@ -264,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,13 +284,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -364,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -386,9 +361,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -624,8 +596,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:E20" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B1:E20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:E18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B1:E18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Story ID" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="As a/an .." dataDxfId="2"/>
@@ -899,11 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,22 +889,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>35</v>
@@ -941,82 +913,82 @@
         <v>36</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="D4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -1025,17 +997,17 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>38</v>
@@ -1051,17 +1023,17 @@
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>67</v>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>38</v>
@@ -1070,55 +1042,55 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+    <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="D8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="D9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1129,13 +1101,13 @@
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1155,13 +1127,13 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1181,13 +1153,13 @@
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1207,17 +1179,17 @@
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>70</v>
+      <c r="D13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>38</v>
@@ -1233,184 +1205,146 @@
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="D17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F22" s="7"/>
@@ -1461,34 +1395,16 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="6:9" x14ac:dyDescent="0.35">
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1501,15 +1417,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3dab60aa55af7873d4fb0fb0a2c8c369">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="984ff00f1b2cb8248b6feb67eea399b9" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -1680,6 +1587,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1695,14 +1611,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A859F246-920B-4558-9B11-B3C7D5FB3865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1721,6 +1629,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{620DE3A1-D1B6-4E10-AC53-B8E4EB0783E9}">
   <ds:schemaRefs>

--- a/eShopping-user-stories.xlsx
+++ b/eShopping-user-stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/jose_ben_gds_ey_com/Documents/Documents/GitHub/ey-eshopping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DX595QX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{84DC712E-6FB6-4D98-AB73-A6FB0FE30413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCAC7050-207A-4F07-9438-0A34A7749D23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC22AA2-841E-4820-BC36-00F7BDCBB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>User Story ID</t>
   </si>
@@ -56,24 +56,6 @@
     <t>I can find a product to buy</t>
   </si>
   <si>
-    <t>remove an item from my cart</t>
-  </si>
-  <si>
-    <t>I can remove unwanted items</t>
-  </si>
-  <si>
-    <t>use eKart app in mobile devices and desktops</t>
-  </si>
-  <si>
-    <t>I can use eKart at any point of time using my mobile phone</t>
-  </si>
-  <si>
-    <t>have seemless screen transition and minimalist design</t>
-  </si>
-  <si>
-    <t>I can have a good user experience</t>
-  </si>
-  <si>
     <t>ESUC001</t>
   </si>
   <si>
@@ -92,15 +74,6 @@
     <t>ESUC006</t>
   </si>
   <si>
-    <t>ESUC007</t>
-  </si>
-  <si>
-    <t>ESUC008</t>
-  </si>
-  <si>
-    <t>ESUC009</t>
-  </si>
-  <si>
     <t>ESUC010</t>
   </si>
   <si>
@@ -152,15 +125,15 @@
     <t>Business Priority</t>
   </si>
   <si>
-    <t>Scrum Master</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
+    <t>Medium</t>
+  </si>
+  <si>
     <t>Short Description of Feature Set/ Feature</t>
   </si>
   <si>
@@ -183,6 +156,21 @@
   </si>
   <si>
     <t>Maria</t>
+  </si>
+  <si>
+    <t>Create and connect the mysql tables</t>
+  </si>
+  <si>
+    <t>Performing CURD functionalits on the tables</t>
+  </si>
+  <si>
+    <t>ESUC016</t>
+  </si>
+  <si>
+    <t>jUnit Testing</t>
+  </si>
+  <si>
+    <t>Required</t>
   </si>
   <si>
     <t>As a user, I want to login to the application using my credentials</t>
@@ -246,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +273,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,16 +340,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -361,6 +359,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -379,6 +380,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -596,8 +603,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:E18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B1:E18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:E17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B1:E17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Story ID" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="As a/an .." dataDxfId="2"/>
@@ -874,8 +881,8 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,9 +894,9 @@
     <col min="6" max="6" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>42</v>
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -897,23 +904,23 @@
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>43</v>
+      <c r="G1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -921,25 +928,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -947,7 +954,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -958,25 +965,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -984,7 +991,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -995,25 +1002,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>39</v>
+      <c r="F6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1021,25 +1028,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
+      <c r="E7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -1047,25 +1054,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -1073,338 +1080,316 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>39</v>
+      <c r="D10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="G12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="H18" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/eShopping-user-stories.xlsx
+++ b/eShopping-user-stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DX595QX\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/jose_ben_gds_ey_com/Documents/Documents/GitHub/ey-eshopping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC22AA2-841E-4820-BC36-00F7BDCBB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{DAC22AA2-841E-4820-BC36-00F7BDCBB504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A868ABD8-1D88-47CB-9CBD-1C3C347CFA58}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>User Story ID</t>
   </si>
@@ -164,15 +164,6 @@
     <t>Performing CURD functionalits on the tables</t>
   </si>
   <si>
-    <t>ESUC016</t>
-  </si>
-  <si>
-    <t>jUnit Testing</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
     <t>As a user, I want to login to the application using my credentials</t>
   </si>
   <si>
@@ -228,13 +219,16 @@
   </si>
   <si>
     <t>see the summary of products</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +274,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +295,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -308,6 +302,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,52 +354,46 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -410,14 +416,45 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -525,24 +562,24 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -603,13 +640,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:E17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:E17" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5">
   <autoFilter ref="B1:E17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Story ID" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="As a/an .." dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Short Description of Feature Set/ Feature" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dependency of Feature Set/ Feature" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Story ID" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="As a/an .." dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Short Description of Feature Set/ Feature" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dependency of Feature Set/ Feature" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -878,11 +915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -892,55 +929,56 @@
     <col min="4" max="4" width="60.54296875" customWidth="1"/>
     <col min="5" max="5" width="50.26953125" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>45</v>
+      <c r="D2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>28</v>
@@ -948,36 +986,39 @@
       <c r="H2" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
-        <v>47</v>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>28</v>
@@ -985,411 +1026,404 @@
       <c r="H4" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
-        <v>50</v>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="E10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H10" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H11" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H13" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H14" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="5"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="5"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="5"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="5"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="5"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1402,6 +1436,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A9C735C9F3CD54A948D0AD38DF112BF" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3dab60aa55af7873d4fb0fb0a2c8c369">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eac52b12-2228-488c-9d59-8a93d308b64e" xmlns:ns3="951c5514-b77c-4532-82d5-a05f2f7d58e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="984ff00f1b2cb8248b6feb67eea399b9" ns2:_="" ns3:_="">
     <xsd:import namespace="eac52b12-2228-488c-9d59-8a93d308b64e"/>
@@ -1572,15 +1615,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1596,6 +1630,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A859F246-920B-4558-9B11-B3C7D5FB3865}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1614,14 +1656,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DF5C56E-D7C6-4327-8959-88D05F86416E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{620DE3A1-D1B6-4E10-AC53-B8E4EB0783E9}">
   <ds:schemaRefs>
